--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{85D0039F-B11A-4DCC-9A38-B8ACF78CBBE6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE9570-F9DF-4091-9C3E-219604DD9C1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,18 +373,18 @@
   <dimension ref="A1:K745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>6</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>6</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>6</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>7</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>7</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>7</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>7</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>7</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>7</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>7</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>7</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>7</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>7</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>7</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>7</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>7</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>7</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>7</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>8</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>8</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>8</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>8</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>8</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>8</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>8</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>8</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>8</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>8</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>9</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>9</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>9</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>9</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>9</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>9</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>9</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>9</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>9</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>9</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>9</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>9</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>9</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>9</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>9</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>9</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>9</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>9</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>9</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>9</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>9</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>9</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>10</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>10</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>10</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>10</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>10</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>10</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>10</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>10</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>10</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>10</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>10</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>10</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>10</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>10</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>10</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>10</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>10</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>10</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>10</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>10</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>10</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>10</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>10</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>10</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>11</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>11</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>11</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>11</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>11</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>11</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>11</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>11</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>11</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>11</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>11</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>11</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>11</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>11</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>11</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>11</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>11</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>11</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>11</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>11</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>11</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>11</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>11</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>11</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>12</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>12</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>12</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>12</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>12</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>12</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>12</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>12</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>12</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>12</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>12</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>12</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>12</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>12</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>12</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>12</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>12</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>12</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>12</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>12</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>12</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>12</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>12</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>12</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>13</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>13</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>13</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>13</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>13</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>13</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>13</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>13</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>13</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>13</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>13</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>13</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>13</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>13</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>13</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>13</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>13</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>13</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>13</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>13</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>13</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>13</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>13</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>13</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>14</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>14</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>14</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>14</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>14</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>14</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>14</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>14</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>14</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>14</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>14</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>14</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>14</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>14</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>14</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>14</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>14</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>14</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>14</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>14</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>14</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>15</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>15</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>15</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>15</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>15</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>15</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>15</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>15</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>15</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>15</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>15</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>15</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>15</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>15</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>15</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>15</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>15</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>15</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>15</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>15</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>15</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>15</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>15</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>15</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>16</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>16</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>16</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>16</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>16</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>16</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>16</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>16</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>16</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>16</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>16</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>16</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>16</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>16</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>16</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>16</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>16</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>16</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>16</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>16</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>16</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>16</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>16</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>16</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>17</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>17</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>17</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>17</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>17</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>17</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>17</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>17</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>17</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>17</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>17</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>17</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>17</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>17</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>17</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>17</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>17</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>17</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>17</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>17</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>17</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>17</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>17</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>18</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>18</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>18</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>18</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>18</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>18</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>18</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>18</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>18</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>18</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>18</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>18</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>18</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>18</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>18</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>18</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>18</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>18</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>18</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>18</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>18</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>18</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>18</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>18</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>19</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>19</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>19</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>19</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>19</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>19</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>19</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>19</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>19</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>19</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>19</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>19</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>19</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>19</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>19</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>19</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>19</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>19</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>19</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>19</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>19</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>19</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>19</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>19</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>20</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>20</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>20</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>20</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>20</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>20</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>20</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>20</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>20</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>20</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>20</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>20</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>20</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>20</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>20</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>20</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>20</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>20</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>20</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>20</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>20</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>20</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>20</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>20</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>21</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>21</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>21</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>21</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>21</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>21</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>21</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>21</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>21</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>21</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>21</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>21</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>21</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>21</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>21</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>21</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>21</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>21</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>21</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>21</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>21</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>21</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>21</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>21</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>22</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>22</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>22</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>22</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>22</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>22</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>22</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>22</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>22</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>22</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>22</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>22</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>22</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>22</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>22</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>22</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>22</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>22</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>22</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>22</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>22</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>22</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>22</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>22</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>23</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>23</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>23</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>23</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>23</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>23</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>23</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>23</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>23</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>23</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>23</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>23</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>23</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>23</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>23</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>23</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>23</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>23</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>23</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>23</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>23</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>23</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>23</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>23</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>24</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>24</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>24</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>24</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>24</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>24</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>24</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>24</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>24</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>24</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>24</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>24</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>24</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>24</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>24</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>24</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>24</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>24</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>24</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>24</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>24</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>24</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>24</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>24</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>25</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>25</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>25</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>25</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>25</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>25</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>25</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>25</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>25</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>25</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>25</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>25</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>25</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>25</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>25</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>25</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>25</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>25</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>25</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>25</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>25</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>25</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>25</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>25</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>26</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>26</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>26</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>26</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>26</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>26</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>26</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>26</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>26</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>26</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>26</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>26</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>26</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>26</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>26</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>26</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>26</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>26</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>26</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>26</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>26</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>26</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>26</v>
       </c>
@@ -22224,7 +22224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>26</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>27</v>
       </c>
@@ -22294,7 +22294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>27</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>27</v>
       </c>
@@ -22364,7 +22364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>27</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>27</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>27</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>27</v>
       </c>
@@ -22504,7 +22504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>27</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>27</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>27</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>27</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>27</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>27</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>27</v>
       </c>
@@ -22749,7 +22749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>27</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>27</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>27</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>27</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>27</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>27</v>
       </c>
@@ -22959,7 +22959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>27</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>27</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>27</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>27</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>28</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>28</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>28</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>28</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>28</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>28</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>28</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>28</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>28</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>28</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>28</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>28</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>28</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>28</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>28</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>28</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>28</v>
       </c>
@@ -23694,7 +23694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>28</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>28</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>28</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>28</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>28</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>28</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>28</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>29</v>
       </c>
@@ -23974,7 +23974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>29</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>29</v>
       </c>
@@ -24044,7 +24044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>29</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>29</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>29</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>29</v>
       </c>
@@ -24184,7 +24184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>29</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>29</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>29</v>
       </c>
@@ -24289,7 +24289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>29</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>29</v>
       </c>
@@ -24359,7 +24359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>29</v>
       </c>
@@ -24394,7 +24394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>29</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>29</v>
       </c>
@@ -24464,7 +24464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>29</v>
       </c>
@@ -24499,7 +24499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>29</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>29</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>29</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>29</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>29</v>
       </c>
@@ -24674,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>29</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>29</v>
       </c>
@@ -24744,7 +24744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>29</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>30</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>30</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>30</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>30</v>
       </c>
@@ -24919,7 +24919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>30</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>30</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>30</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>30</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>30</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>30</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>30</v>
       </c>
@@ -25164,7 +25164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>30</v>
       </c>
@@ -25199,7 +25199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>30</v>
       </c>
@@ -25234,7 +25234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>30</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>30</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>30</v>
       </c>
@@ -25339,7 +25339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>30</v>
       </c>
@@ -25374,7 +25374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>30</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>30</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>30</v>
       </c>
@@ -25479,7 +25479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>30</v>
       </c>
@@ -25514,7 +25514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>30</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>30</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>30</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>31</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>31</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>31</v>
       </c>
@@ -25724,7 +25724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>31</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>31</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>31</v>
       </c>
@@ -25829,7 +25829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>31</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>31</v>
       </c>
@@ -25899,7 +25899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>31</v>
       </c>
@@ -25934,7 +25934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>31</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>31</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>31</v>
       </c>
@@ -26039,7 +26039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>31</v>
       </c>
@@ -26074,7 +26074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>31</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>31</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>31</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>31</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>31</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>31</v>
       </c>
@@ -26284,7 +26284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>31</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>31</v>
       </c>
@@ -26354,7 +26354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>31</v>
       </c>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>31</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>31</v>
       </c>

--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE9570-F9DF-4091-9C3E-219604DD9C1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CA785-579A-4E50-84D5-AED88B1C36D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -369,20 +369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E147D7-934E-4719-85A5-DCE75BE2B3AA}">
   <dimension ref="A1:K745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57458BE0-6248-4522-B0B6-9F7A0D0D5CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5271749F-B110-4004-93FD-2325156DE698}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1447,16 +1447,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E147D7-934E-4719-85A5-DCE75BE2B3AA}">
   <dimension ref="A1:K745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>18</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>18</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>18</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>18</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>17</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>17</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>17</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>17</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>17</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>17</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>17</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>17</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>17</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>23</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>23</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>23</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>23</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>23</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>23</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>23</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>23</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>23</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>23</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>23</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>23</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>23</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>23</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>23</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>23</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>23</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>23</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>23</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>23</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>23</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>23</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>23</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>27</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>27</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>27</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>27</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>27</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>27</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>27</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>27</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>27</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>27</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>27</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>27</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>27</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>27</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>27</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>27</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>27</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>27</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>27</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>27</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>27</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>27</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>27</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>24</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>24</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>24</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>24</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>24</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>24</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>24</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>24</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>24</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>24</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>24</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>24</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>24</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>24</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>24</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>24</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>24</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>24</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>24</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>24</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>24</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>24</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>20</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>20</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>20</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>20</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>20</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>20</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>20</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>20</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>20</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>20</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>20</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>20</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>20</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>20</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>20</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>20</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>20</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>20</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>20</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>20</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>20</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>14</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>14</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>14</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>14</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>14</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>14</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>14</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>14</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>14</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>14</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>14</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>14</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>14</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>14</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>14</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>14</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>14</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>14</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>14</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>14</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>14</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>14</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>14</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>25</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>25</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>25</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>25</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>25</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>25</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>25</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>25</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>25</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>25</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>25</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>25</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>25</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>25</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>25</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>25</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>25</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>25</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>25</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>25</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>25</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>25</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>15</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>15</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>15</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>15</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>15</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>15</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>15</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>15</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>15</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>15</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>15</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>15</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>15</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>15</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>15</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>15</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>15</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>15</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>15</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>15</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>15</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>15</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>15</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>15</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>22</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>22</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>22</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>22</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>22</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>22</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>22</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>22</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>22</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>22</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>22</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>22</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>22</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>22</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>22</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>22</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>22</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>22</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>22</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>22</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>22</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>22</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>22</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>22</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>37</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>37</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>37</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>37</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>37</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>37</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>37</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>37</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>37</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>37</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>37</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>37</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>37</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>37</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>37</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>37</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>37</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>37</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>37</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>37</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>37</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>37</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>37</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>41</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>41</v>
       </c>
@@ -13321,7 +13321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>41</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>41</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>41</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>41</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>41</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>41</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>41</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>41</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>41</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>41</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>41</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>41</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>41</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>41</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>41</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>41</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>41</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>41</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>41</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>41</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>41</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>41</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>51</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>51</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>51</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>51</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>51</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>51</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>51</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>51</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>51</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>51</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>51</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>51</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>51</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>51</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>51</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>51</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>51</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>51</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>51</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>51</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>51</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>51</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>51</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>51</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>30</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>30</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>30</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>30</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>30</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>30</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>30</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>30</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>30</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>30</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>30</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>30</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>30</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>30</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>30</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>30</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>30</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>30</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>30</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>30</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>30</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>30</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>30</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>30</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>34</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>34</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>34</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>34</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>34</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>34</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>34</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>34</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>34</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>34</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>34</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>34</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>34</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>34</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>34</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>34</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>34</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>34</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>34</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>34</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>34</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>34</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>34</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>34</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>19</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>19</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>19</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>19</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>19</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>19</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>19</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>19</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>19</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>19</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>19</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>19</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>19</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>19</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>19</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>19</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>19</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>19</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>19</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>19</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>19</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>19</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>19</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>19</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>33</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>33</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>33</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>33</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>33</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>33</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>33</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>33</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>33</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>33</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>33</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>33</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>33</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>33</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>33</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>33</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>33</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>33</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>33</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>33</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>33</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>33</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>33</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>33</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>46</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>46</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>46</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>46</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>46</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>46</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>46</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>46</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>46</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>46</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>46</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>46</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>46</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>46</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>46</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>46</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>46</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>46</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>46</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>46</v>
       </c>
@@ -18991,7 +18991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>46</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>46</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>46</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>46</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>21</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>21</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>21</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>21</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>21</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>21</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>21</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>21</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>21</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>21</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>21</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>21</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>21</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>21</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>21</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>21</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>21</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>21</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>21</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>21</v>
       </c>
@@ -19831,7 +19831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>21</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>21</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>21</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>21</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>42</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>42</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>42</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>42</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>42</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>42</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>42</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>42</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>42</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>42</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>42</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>42</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>42</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>42</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>42</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>42</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>42</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>42</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>42</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>42</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>42</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>42</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>42</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>42</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>26</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>26</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>26</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>26</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>26</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>26</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>26</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>26</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>26</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>26</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>26</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>26</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>26</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>26</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>26</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>26</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>26</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>26</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>26</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>26</v>
       </c>
@@ -21511,7 +21511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>26</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>26</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>26</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>26</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>29</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>29</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>29</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>29</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>29</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>29</v>
       </c>
@@ -21861,7 +21861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>29</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>29</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>29</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>29</v>
       </c>
@@ -22001,7 +22001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>29</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>29</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>29</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>29</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>29</v>
       </c>
@@ -22176,7 +22176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>29</v>
       </c>
@@ -22211,7 +22211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>29</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>29</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>29</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>29</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>29</v>
       </c>
@@ -22386,7 +22386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>29</v>
       </c>
@@ -22421,7 +22421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>29</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>29</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>66</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>66</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>66</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>66</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>66</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>66</v>
       </c>
@@ -22701,7 +22701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>66</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>66</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>66</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>66</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>66</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>66</v>
       </c>
@@ -22911,7 +22911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>66</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>66</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>66</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>66</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>66</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>66</v>
       </c>
@@ -23121,7 +23121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>66</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>66</v>
       </c>
@@ -23191,7 +23191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>66</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>66</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>66</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>66</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>54</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>54</v>
       </c>
@@ -23401,7 +23401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>54</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>54</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>54</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>54</v>
       </c>
@@ -23541,7 +23541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>54</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>54</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>54</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>54</v>
       </c>
@@ -23681,7 +23681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>54</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>54</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>54</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>54</v>
       </c>
@@ -23821,7 +23821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>54</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>54</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>54</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>54</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>54</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>54</v>
       </c>
@@ -24031,7 +24031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>54</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>54</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>54</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>54</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>35</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>35</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>35</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>35</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>35</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>35</v>
       </c>
@@ -24381,7 +24381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>35</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>35</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>35</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>35</v>
       </c>
@@ -24521,7 +24521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>35</v>
       </c>
@@ -24556,7 +24556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>35</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>35</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>35</v>
       </c>
@@ -24661,7 +24661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>35</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>35</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>35</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>35</v>
       </c>
@@ -24801,7 +24801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>35</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>35</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>35</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>35</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>35</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>35</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>70</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>70</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>70</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>70</v>
       </c>
@@ -25151,7 +25151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>70</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>70</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>70</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>70</v>
       </c>
@@ -25291,7 +25291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>70</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>70</v>
       </c>
@@ -25361,7 +25361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>70</v>
       </c>
@@ -25396,7 +25396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>70</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>70</v>
       </c>
@@ -25466,7 +25466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>70</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>70</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>70</v>
       </c>
@@ -25571,7 +25571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>70</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>70</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>70</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>70</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>70</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>70</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>70</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>70</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>38</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>38</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>38</v>
       </c>
@@ -25956,7 +25956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>38</v>
       </c>
@@ -25991,7 +25991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>38</v>
       </c>
@@ -26026,7 +26026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>38</v>
       </c>
@@ -26061,7 +26061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>38</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>38</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>38</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>38</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>38</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>38</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>38</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>38</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>38</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>38</v>
       </c>
@@ -26411,7 +26411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>38</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>38</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>38</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>38</v>
       </c>
@@ -26551,7 +26551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>38</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>38</v>
       </c>
@@ -26621,7 +26621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>38</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>38</v>
       </c>
@@ -26691,7 +26691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>53</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>53</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>53</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>53</v>
       </c>
@@ -26831,7 +26831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>53</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>53</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>53</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>53</v>
       </c>
@@ -26971,7 +26971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>53</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>53</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>53</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>53</v>
       </c>
@@ -27111,7 +27111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>53</v>
       </c>
@@ -27146,7 +27146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>53</v>
       </c>
@@ -27181,7 +27181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>53</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>53</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>53</v>
       </c>
@@ -27286,7 +27286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>53</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>53</v>
       </c>
@@ -27356,7 +27356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>53</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>53</v>
       </c>
@@ -27426,7 +27426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>53</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>53</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>53</v>
       </c>
